--- a/第二组/小组计划实施表 .xlsx
+++ b/第二组/小组计划实施表 .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="128">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,6 +578,10 @@
   </si>
   <si>
     <t>品牌服装管理模块中的BrandClothController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +685,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -753,32 +757,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1120,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1133,12 +1140,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1166,10 +1173,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1178,7 +1185,7 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="33"/>
       <c r="D5" s="1"/>
     </row>
@@ -1186,7 +1193,7 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="1"/>
     </row>
@@ -1194,7 +1201,7 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="1"/>
     </row>
@@ -1202,17 +1209,17 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -1303,12 +1310,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -1393,24 +1400,24 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -1497,24 +1504,24 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
@@ -1609,24 +1616,24 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -1666,7 +1673,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1678,7 +1685,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1688,7 +1695,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1698,31 +1705,31 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
@@ -1762,7 +1769,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1774,7 +1781,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1784,7 +1791,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1794,31 +1801,31 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -1858,7 +1865,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="32" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1870,7 +1877,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="29"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1880,7 +1887,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="29"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1890,31 +1897,31 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="29"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -1999,24 +2006,24 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
@@ -2047,7 +2054,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="32" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2059,7 +2066,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="29"/>
+      <c r="C91" s="32"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2069,7 +2076,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="29"/>
+      <c r="C92" s="32"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2079,7 +2086,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="29"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2089,28 +2096,28 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="29"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
@@ -2195,24 +2202,24 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
@@ -2297,24 +2304,24 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
@@ -2401,24 +2408,24 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
@@ -2505,24 +2512,24 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="25"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
@@ -2553,7 +2560,9 @@
       <c r="B144" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C144" s="24"/>
+      <c r="C144" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="D144" s="24"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2563,7 +2572,9 @@
       <c r="B145" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C145" s="24"/>
+      <c r="C145" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="D145" s="24"/>
     </row>
     <row r="146" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -2573,7 +2584,9 @@
       <c r="B146" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C146" s="24"/>
+      <c r="C146" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="D146" s="24"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2583,7 +2596,9 @@
       <c r="B147" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C147" s="24"/>
+      <c r="C147" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="D147" s="24"/>
     </row>
     <row r="148" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -2593,37 +2608,48 @@
       <c r="B148" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C148" s="24"/>
+      <c r="C148" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="25"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="25"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A116:D118"/>
     <mergeCell ref="A98:D98"/>
@@ -2640,21 +2666,12 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:D47"/>
     <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表 .xlsx
+++ b/第二组/小组计划实施表 .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="134">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,6 +582,30 @@
   </si>
   <si>
     <t>继续完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成用户管理模块UserController接口的实现，并且进行登录界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成作品管理WorkController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成专辑管理中AlumnController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料管理模块界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成品牌服装管理模块中的BrandClothController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24 第九周 周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +709,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -760,6 +784,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,7 +797,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,14 +811,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1125,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149:D151"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1140,20 +1167,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1173,10 +1200,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1185,49 +1212,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1310,20 +1337,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1400,32 +1427,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1504,32 +1531,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1616,32 +1643,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1673,7 +1700,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1685,7 +1712,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="32"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1695,7 +1722,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="32"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1705,39 +1732,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="32"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1769,7 +1796,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1781,7 +1808,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="32"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1791,7 +1818,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1801,39 +1828,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="32"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1865,7 +1892,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1877,7 +1904,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="32"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1887,7 +1914,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="32"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1897,39 +1924,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="32"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2006,32 +2033,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2054,7 +2081,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2066,7 +2093,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="32"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2076,7 +2103,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="32"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2086,7 +2113,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="32"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2096,36 +2123,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="32"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2202,32 +2229,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2304,32 +2331,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2408,32 +2435,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="28"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="28"/>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="26" t="s">
+      <c r="A131" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2512,32 +2539,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="28" t="s">
+      <c r="A138" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="28"/>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="28"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="26" t="s">
+      <c r="A142" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -2614,42 +2641,127 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="28" t="s">
+      <c r="A149" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="28"/>
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
+      <c r="A151" s="27"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+    </row>
+    <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+    </row>
+    <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+    </row>
+    <row r="156" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+    </row>
+    <row r="157" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+    </row>
+    <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+    </row>
+    <row r="159" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="27"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="27"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
+  <mergeCells count="39">
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A116:D118"/>
     <mergeCell ref="A98:D98"/>
@@ -2666,12 +2778,21 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:D47"/>
     <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
